--- a/simulation_data/iterative_algorithm/i_error_level_3_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_3_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.53535744027846</v>
+        <v>90.94663808416857</v>
       </c>
       <c r="D2" t="n">
-        <v>8.274793056082586</v>
+        <v>6.994766323022351</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.1999416443785</v>
+        <v>88.84048808892443</v>
       </c>
       <c r="D3" t="n">
-        <v>7.651344886153159</v>
+        <v>7.145542801472816</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.46602585387934</v>
+        <v>87.20049462471843</v>
       </c>
       <c r="D4" t="n">
-        <v>8.014678541431712</v>
+        <v>7.788472529311066</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.27399259698591</v>
+        <v>90.0171236182297</v>
       </c>
       <c r="D5" t="n">
-        <v>7.418050969019153</v>
+        <v>7.410336401168699</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.49589433311685</v>
+        <v>84.66369647739715</v>
       </c>
       <c r="D6" t="n">
-        <v>7.879368652487582</v>
+        <v>6.406489846772277</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.65260671697297</v>
+        <v>85.67252219193932</v>
       </c>
       <c r="D7" t="n">
-        <v>8.601570132582895</v>
+        <v>7.7298146350287</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.64320664775714</v>
+        <v>84.67054421059913</v>
       </c>
       <c r="D8" t="n">
-        <v>8.062316584676131</v>
+        <v>7.141904176140097</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.22246987651314</v>
+        <v>82.01485625602118</v>
       </c>
       <c r="D9" t="n">
-        <v>7.857227891028264</v>
+        <v>7.671229616315277</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.62614645875756</v>
+        <v>83.4763491561758</v>
       </c>
       <c r="D10" t="n">
-        <v>8.512769691539889</v>
+        <v>7.209176425538563</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.84142346240731</v>
+        <v>80.47057858515991</v>
       </c>
       <c r="D11" t="n">
-        <v>7.76505006949892</v>
+        <v>7.494112524365271</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.71677777713039</v>
+        <v>80.36694651735847</v>
       </c>
       <c r="D12" t="n">
-        <v>7.150774457846564</v>
+        <v>7.222789380865891</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.50045380359654</v>
+        <v>78.03596813585391</v>
       </c>
       <c r="D13" t="n">
-        <v>7.609425004971381</v>
+        <v>7.424904013762956</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.33427698475761</v>
+        <v>77.43256102038744</v>
       </c>
       <c r="D14" t="n">
-        <v>6.808444709585986</v>
+        <v>7.428144826817318</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.91977986933564</v>
+        <v>78.44915692915909</v>
       </c>
       <c r="D15" t="n">
-        <v>7.588520612410405</v>
+        <v>6.666709203591981</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.42022413358016</v>
+        <v>77.4708769422143</v>
       </c>
       <c r="D16" t="n">
-        <v>8.040071080416846</v>
+        <v>7.929032690976458</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.53781229100316</v>
+        <v>74.74884784660577</v>
       </c>
       <c r="D17" t="n">
-        <v>8.469213421100758</v>
+        <v>7.492215146402391</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.47377739393363</v>
+        <v>73.04980975044798</v>
       </c>
       <c r="D18" t="n">
-        <v>8.284038264278836</v>
+        <v>6.982511994457566</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.96274337553817</v>
+        <v>72.707046545179</v>
       </c>
       <c r="D19" t="n">
-        <v>8.079055365056</v>
+        <v>8.145342996496314</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.5040683558714</v>
+        <v>71.99576274894299</v>
       </c>
       <c r="D20" t="n">
-        <v>7.832135525465866</v>
+        <v>8.622569205806281</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.43093491077244</v>
+        <v>70.34384116720385</v>
       </c>
       <c r="D21" t="n">
-        <v>7.629173098568232</v>
+        <v>7.302060766872789</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.17066644715905</v>
+        <v>71.61331309688914</v>
       </c>
       <c r="D22" t="n">
-        <v>8.445103024396497</v>
+        <v>7.209102859222717</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.43356972408156</v>
+        <v>68.36485458368948</v>
       </c>
       <c r="D23" t="n">
-        <v>6.58849575542876</v>
+        <v>6.409455271411796</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.32726603115293</v>
+        <v>68.0944979602057</v>
       </c>
       <c r="D24" t="n">
-        <v>7.262534355217968</v>
+        <v>7.957475381576655</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.9636545852952</v>
+        <v>67.53671062343417</v>
       </c>
       <c r="D25" t="n">
-        <v>7.698620674763843</v>
+        <v>7.328731844529746</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.43028924849315</v>
+        <v>66.93255326752308</v>
       </c>
       <c r="D26" t="n">
-        <v>8.122451030947614</v>
+        <v>7.486976453217364</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.78456087217145</v>
+        <v>64.41375895927345</v>
       </c>
       <c r="D27" t="n">
-        <v>7.448495154547656</v>
+        <v>7.649127600942914</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.70612309563232</v>
+        <v>64.32617650922212</v>
       </c>
       <c r="D28" t="n">
-        <v>7.5510542030202</v>
+        <v>8.916987084172836</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.91411304065187</v>
+        <v>63.58681212464196</v>
       </c>
       <c r="D29" t="n">
-        <v>8.593590673419961</v>
+        <v>7.641837255301539</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.16574468399951</v>
+        <v>61.83492311662729</v>
       </c>
       <c r="D30" t="n">
-        <v>7.672701300728727</v>
+        <v>6.530308148758425</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.65253873035959</v>
+        <v>61.33280393250276</v>
       </c>
       <c r="D31" t="n">
-        <v>7.030068477139061</v>
+        <v>7.706044112496442</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.28400974727128</v>
+        <v>59.63641367964176</v>
       </c>
       <c r="D32" t="n">
-        <v>6.97644861093032</v>
+        <v>7.385895522879757</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.78985951254883</v>
+        <v>58.28787939731385</v>
       </c>
       <c r="D33" t="n">
-        <v>7.787901903075602</v>
+        <v>8.207788282354601</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.62097748195733</v>
+        <v>56.99842226722042</v>
       </c>
       <c r="D34" t="n">
-        <v>8.36822390759105</v>
+        <v>6.794758524882869</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.21911027412069</v>
+        <v>56.72719407144984</v>
       </c>
       <c r="D35" t="n">
-        <v>7.507328258058302</v>
+        <v>7.460126843239343</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.03782377001335</v>
+        <v>56.47424575333812</v>
       </c>
       <c r="D36" t="n">
-        <v>8.210455850785527</v>
+        <v>6.637194586761034</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.67184204221944</v>
+        <v>54.98297110368942</v>
       </c>
       <c r="D37" t="n">
-        <v>8.200772199424438</v>
+        <v>7.101937956213707</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.81710515838876</v>
+        <v>53.4086774334844</v>
       </c>
       <c r="D38" t="n">
-        <v>7.422370983754772</v>
+        <v>7.153310595561593</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.289181087092</v>
+        <v>51.69732760188469</v>
       </c>
       <c r="D39" t="n">
-        <v>7.114492261587126</v>
+        <v>6.722652520450173</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.49858608870899</v>
+        <v>51.43901906800772</v>
       </c>
       <c r="D40" t="n">
-        <v>7.885410920360281</v>
+        <v>8.13004001502776</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.3301819349626</v>
+        <v>50.96038689998143</v>
       </c>
       <c r="D41" t="n">
-        <v>7.563103909335785</v>
+        <v>8.264834833270216</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.99631331343296</v>
+        <v>49.48396516794566</v>
       </c>
       <c r="D42" t="n">
-        <v>7.743770282062111</v>
+        <v>7.488434188002778</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.88072945608805</v>
+        <v>48.32775559875523</v>
       </c>
       <c r="D43" t="n">
-        <v>8.066072798983235</v>
+        <v>7.918710763938125</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.12048562286908</v>
+        <v>49.22282535148688</v>
       </c>
       <c r="D44" t="n">
-        <v>7.126160089569775</v>
+        <v>7.092668899724911</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.21999457546843</v>
+        <v>46.86024207579099</v>
       </c>
       <c r="D45" t="n">
-        <v>7.682176545196705</v>
+        <v>6.918042871893924</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.56571345217415</v>
+        <v>45.28275777239459</v>
       </c>
       <c r="D46" t="n">
-        <v>8.445814172528257</v>
+        <v>7.450819040454737</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.12530242525072</v>
+        <v>43.49518224044525</v>
       </c>
       <c r="D47" t="n">
-        <v>7.404887707150887</v>
+        <v>6.886459276842227</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.70702496195525</v>
+        <v>43.74023772254187</v>
       </c>
       <c r="D48" t="n">
-        <v>7.716154992782596</v>
+        <v>7.528166314787555</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.60855014208576</v>
+        <v>42.05374321113791</v>
       </c>
       <c r="D49" t="n">
-        <v>7.894186907661536</v>
+        <v>8.160048128048539</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.15588592544762</v>
+        <v>41.1678919009801</v>
       </c>
       <c r="D50" t="n">
-        <v>8.151077631804403</v>
+        <v>7.219373930315421</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.72543970357725</v>
+        <v>40.3163455992611</v>
       </c>
       <c r="D51" t="n">
-        <v>7.729955927923061</v>
+        <v>7.116957748105838</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.71151299502583</v>
+        <v>40.21311845682885</v>
       </c>
       <c r="D52" t="n">
-        <v>7.627134641820827</v>
+        <v>8.552027600588593</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.15498541011002</v>
+        <v>38.27099230324674</v>
       </c>
       <c r="D53" t="n">
-        <v>7.693623161021171</v>
+        <v>7.491862320898969</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.91454202092459</v>
+        <v>37.68965434299608</v>
       </c>
       <c r="D54" t="n">
-        <v>8.207762836359738</v>
+        <v>7.85058912160336</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.90793137227744</v>
+        <v>36.39621028143722</v>
       </c>
       <c r="D55" t="n">
-        <v>7.753562571124482</v>
+        <v>7.897375869949169</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.69112473280617</v>
+        <v>35.87728158600196</v>
       </c>
       <c r="D56" t="n">
-        <v>7.229921981386491</v>
+        <v>7.265210243452742</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.29829423801719</v>
+        <v>34.29276654084316</v>
       </c>
       <c r="D57" t="n">
-        <v>7.813565951074597</v>
+        <v>6.60089505911647</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.24155899984624</v>
+        <v>34.45740902967648</v>
       </c>
       <c r="D58" t="n">
-        <v>7.773511191385227</v>
+        <v>8.783547893106229</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.97279720983208</v>
+        <v>32.56408638926219</v>
       </c>
       <c r="D59" t="n">
-        <v>8.171723990422656</v>
+        <v>6.823433410808255</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.2319307179182</v>
+        <v>31.38214509236112</v>
       </c>
       <c r="D60" t="n">
-        <v>7.596578047804287</v>
+        <v>6.993046698635487</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.38490486631355</v>
+        <v>32.26122422046164</v>
       </c>
       <c r="D61" t="n">
-        <v>7.187011600269103</v>
+        <v>7.271632135522409</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.76995677890075</v>
+        <v>29.69702310186846</v>
       </c>
       <c r="D62" t="n">
-        <v>7.558219082087611</v>
+        <v>7.920680188028733</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.5151271735314</v>
+        <v>28.76998290163894</v>
       </c>
       <c r="D63" t="n">
-        <v>8.323558417583472</v>
+        <v>7.580417029725436</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.4953573588704</v>
+        <v>27.19014370834685</v>
       </c>
       <c r="D64" t="n">
-        <v>7.729175570795218</v>
+        <v>8.05197639500418</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.82944265776469</v>
+        <v>26.85063596651109</v>
       </c>
       <c r="D65" t="n">
-        <v>7.243011399812981</v>
+        <v>8.056562723386916</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.08421838862218</v>
+        <v>25.21625087468744</v>
       </c>
       <c r="D66" t="n">
-        <v>7.260574430867575</v>
+        <v>7.461214452262223</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.61903802299439</v>
+        <v>23.28247666783055</v>
       </c>
       <c r="D67" t="n">
-        <v>7.017617333084133</v>
+        <v>7.039477163324644</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.39651412262069</v>
+        <v>24.745661509471</v>
       </c>
       <c r="D68" t="n">
-        <v>8.036123370752215</v>
+        <v>7.1934558846369</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.38299453735723</v>
+        <v>23.19036934400147</v>
       </c>
       <c r="D69" t="n">
-        <v>7.762136704897665</v>
+        <v>7.457536103486693</v>
       </c>
     </row>
   </sheetData>
